--- a/data/sentimentdataset_clean.xlsx
+++ b/data/sentimentdataset_clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eimon/Desktop/Code/TechLabs/2 Truth &amp; Lie/2Truth_and_a-_Lie/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{4DAFA5C6-5239-5944-89FB-51E2AA214AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{D7BDC901-2841-FE48-B11D-124B1E4DBEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7495,8 +7495,8 @@
   </sheetPr>
   <dimension ref="A1:O708"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -40797,8 +40797,8 @@
   </sheetPr>
   <dimension ref="A1:L733"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -40814,7 +40814,7 @@
     <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
